--- a/My 3D RPG/Assets/StaticData/Excel/Weapon.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Weapon.xlsx
@@ -392,13 +392,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
